--- a/data_exploration/acl/tag_stats/tag_stats_agglutinative.xlsx
+++ b/data_exploration/acl/tag_stats/tag_stats_agglutinative.xlsx
@@ -856,25 +856,25 @@
         <v>4</v>
       </c>
       <c r="L3">
-        <v>4223</v>
+        <v>5786</v>
       </c>
       <c r="M3" s="1">
-        <v>26.6889970296404</v>
+        <v>27.38805263656158</v>
       </c>
       <c r="N3" s="1">
-        <v>26.6889970296404</v>
+        <v>27.38805263656158</v>
       </c>
       <c r="P3" t="s">
         <v>4</v>
       </c>
       <c r="Q3">
-        <v>54915</v>
+        <v>56478</v>
       </c>
       <c r="R3" s="1">
-        <v>27.81999452870908</v>
+        <v>27.86326388649067</v>
       </c>
       <c r="S3" s="1">
-        <v>27.81999452870908</v>
+        <v>27.86326388649067</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -906,25 +906,25 @@
         <v>5</v>
       </c>
       <c r="L4">
-        <v>2339</v>
+        <v>3114</v>
       </c>
       <c r="M4" s="1">
-        <v>14.78227896100613</v>
+        <v>14.74013064470321</v>
       </c>
       <c r="N4" s="1">
-        <v>41.47127599064653</v>
+        <v>42.12818328126479</v>
       </c>
       <c r="P4" t="s">
         <v>5</v>
       </c>
       <c r="Q4">
-        <v>28832</v>
+        <v>29607</v>
       </c>
       <c r="R4" s="1">
-        <v>14.60632035421543</v>
+        <v>14.60653093040351</v>
       </c>
       <c r="S4" s="1">
-        <v>42.42631488292451</v>
+        <v>42.46979481689418</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -956,25 +956,25 @@
         <v>6</v>
       </c>
       <c r="L5">
-        <v>2021</v>
+        <v>2891</v>
       </c>
       <c r="M5" s="1">
-        <v>12.77254629337041</v>
+        <v>13.68455931080186</v>
       </c>
       <c r="N5" s="1">
-        <v>54.24382228401694</v>
+        <v>55.81274259206664</v>
       </c>
       <c r="P5" t="s">
         <v>6</v>
       </c>
       <c r="Q5">
-        <v>26750</v>
+        <v>27620</v>
       </c>
       <c r="R5" s="1">
-        <v>13.55157704894779</v>
+        <v>13.62625001850052</v>
       </c>
       <c r="S5" s="1">
-        <v>55.9778919318723</v>
+        <v>56.0960448353947</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1003,28 +1003,28 @@
         <v>63.34750381512971</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L6">
-        <v>1505</v>
+        <v>1737</v>
       </c>
       <c r="M6" s="1">
-        <v>9.511470643999241</v>
+        <v>8.222095995455836</v>
       </c>
       <c r="N6" s="1">
-        <v>63.75529292801618</v>
+        <v>64.03483858752247</v>
       </c>
       <c r="P6" t="s">
         <v>7</v>
       </c>
       <c r="Q6">
-        <v>14840</v>
+        <v>15614</v>
       </c>
       <c r="R6" s="1">
-        <v>7.517959005846175</v>
+        <v>7.703123381204458</v>
       </c>
       <c r="S6" s="1">
-        <v>63.49585093771847</v>
+        <v>63.79916821659916</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1056,25 +1056,25 @@
         <v>9</v>
       </c>
       <c r="L7">
-        <v>1160</v>
+        <v>1496</v>
       </c>
       <c r="M7" s="1">
-        <v>7.33110029703596</v>
+        <v>7.081321594244059</v>
       </c>
       <c r="N7" s="1">
-        <v>71.08639322505215</v>
+        <v>71.11616018176653</v>
       </c>
       <c r="P7" t="s">
         <v>8</v>
       </c>
       <c r="Q7">
-        <v>13989</v>
+        <v>14262</v>
       </c>
       <c r="R7" s="1">
-        <v>7.086841545335725</v>
+        <v>7.036117949451645</v>
       </c>
       <c r="S7" s="1">
-        <v>70.5826924830542</v>
+        <v>70.83528616605081</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1106,25 +1106,25 @@
         <v>8</v>
       </c>
       <c r="L8">
-        <v>1139</v>
+        <v>1412</v>
       </c>
       <c r="M8" s="1">
-        <v>7.198382102003413</v>
+        <v>6.683707280128752</v>
       </c>
       <c r="N8" s="1">
-        <v>78.28477532705556</v>
+        <v>77.79986746189529</v>
       </c>
       <c r="P8" t="s">
         <v>9</v>
       </c>
       <c r="Q8">
-        <v>13148</v>
+        <v>13484</v>
       </c>
       <c r="R8" s="1">
-        <v>6.660790094937028</v>
+        <v>6.652293817866076</v>
       </c>
       <c r="S8" s="1">
-        <v>77.24348257799123</v>
+        <v>77.48757998391689</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1153,28 +1153,28 @@
         <v>83.38238500109003</v>
       </c>
       <c r="K9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L9">
-        <v>963</v>
+        <v>1353</v>
       </c>
       <c r="M9" s="1">
-        <v>6.086077229349681</v>
+        <v>6.404430559500142</v>
       </c>
       <c r="N9" s="1">
-        <v>84.37085255640524</v>
+        <v>84.20429802139543</v>
       </c>
       <c r="P9" t="s">
         <v>10</v>
       </c>
       <c r="Q9">
-        <v>12529</v>
+        <v>12123</v>
       </c>
       <c r="R9" s="1">
-        <v>6.347204069019321</v>
+        <v>5.980848261197749</v>
       </c>
       <c r="S9" s="1">
-        <v>83.59068664701056</v>
+        <v>83.46842824511464</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1203,28 +1203,28 @@
         <v>89.16503161107477</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>826</v>
+        <v>1099</v>
       </c>
       <c r="M10" s="1">
-        <v>5.220249004613537</v>
+        <v>5.202120609675282</v>
       </c>
       <c r="N10" s="1">
-        <v>89.59110156101877</v>
+        <v>89.40641863107071</v>
       </c>
       <c r="P10" t="s">
         <v>11</v>
       </c>
       <c r="Q10">
-        <v>11583</v>
+        <v>12110</v>
       </c>
       <c r="R10" s="1">
-        <v>5.867959512447187</v>
+        <v>5.974434747430895</v>
       </c>
       <c r="S10" s="1">
-        <v>89.45864615945774</v>
+        <v>89.44286299254553</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1256,25 +1256,25 @@
         <v>12</v>
       </c>
       <c r="L11">
-        <v>596</v>
+        <v>937</v>
       </c>
       <c r="M11" s="1">
-        <v>3.766668773304683</v>
+        <v>4.435293003881473</v>
       </c>
       <c r="N11" s="1">
-        <v>93.35777033432346</v>
+        <v>93.84171163495218</v>
       </c>
       <c r="P11" t="s">
         <v>12</v>
       </c>
       <c r="Q11">
-        <v>7975</v>
+        <v>8316</v>
       </c>
       <c r="R11" s="1">
-        <v>4.040143064125556</v>
+        <v>4.102675421935204</v>
       </c>
       <c r="S11" s="1">
-        <v>93.4987892235833</v>
+        <v>93.54553841448073</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1306,25 +1306,25 @@
         <v>13</v>
       </c>
       <c r="L12">
-        <v>387</v>
+        <v>498</v>
       </c>
       <c r="M12" s="1">
-        <v>2.445806737028377</v>
+        <v>2.357284862255041</v>
       </c>
       <c r="N12" s="1">
-        <v>95.80357707135184</v>
+        <v>96.19899649720722</v>
       </c>
       <c r="P12" t="s">
         <v>13</v>
       </c>
       <c r="Q12">
-        <v>4869</v>
+        <v>4980</v>
       </c>
       <c r="R12" s="1">
-        <v>2.466640323414086</v>
+        <v>2.456869119917907</v>
       </c>
       <c r="S12" s="1">
-        <v>95.96542954699738</v>
+        <v>96.00240753439864</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1353,28 +1353,28 @@
         <v>97.81447569217353</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L13">
-        <v>319</v>
+        <v>440</v>
       </c>
       <c r="M13" s="1">
-        <v>2.016052581684889</v>
+        <v>2.0827416453659</v>
       </c>
       <c r="N13" s="1">
-        <v>97.81962965303673</v>
+        <v>98.28173814257312</v>
       </c>
       <c r="P13" t="s">
         <v>14</v>
       </c>
       <c r="Q13">
-        <v>3796</v>
+        <v>3925</v>
       </c>
       <c r="R13" s="1">
-        <v>1.923057438422647</v>
+        <v>1.936387810377065</v>
       </c>
       <c r="S13" s="1">
-        <v>97.88848698542003</v>
+        <v>97.93879534477571</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1403,28 +1403,28 @@
         <v>99.31872683671244</v>
       </c>
       <c r="K14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L14">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="M14" s="1">
-        <v>1.965493269291538</v>
+        <v>1.306447032093155</v>
       </c>
       <c r="N14" s="1">
-        <v>99.78512292232827</v>
+        <v>99.58818517466628</v>
       </c>
       <c r="P14" t="s">
         <v>15</v>
       </c>
       <c r="Q14">
-        <v>3017</v>
+        <v>2974</v>
       </c>
       <c r="R14" s="1">
-        <v>1.52841525071684</v>
+        <v>1.467214610971055</v>
       </c>
       <c r="S14" s="1">
-        <v>99.41690223613688</v>
+        <v>99.40600995574677</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1453,28 +1453,28 @@
         <v>99.58033573141486</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M15" s="1">
-        <v>0.08847879668836503</v>
+        <v>0.1278046009656348</v>
       </c>
       <c r="N15" s="1">
-        <v>99.87360171901663</v>
+        <v>99.71598977563191</v>
       </c>
       <c r="P15" t="s">
         <v>16</v>
       </c>
       <c r="Q15">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="R15" s="1">
-        <v>0.2401288792972431</v>
+        <v>0.2368066621607621</v>
       </c>
       <c r="S15" s="1">
-        <v>99.65703111543412</v>
+        <v>99.64281661790753</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1506,25 +1506,25 @@
         <v>17</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M16" s="1">
-        <v>0.07583896859002717</v>
+        <v>0.09940357852882703</v>
       </c>
       <c r="N16" s="1">
-        <v>99.94944068760667</v>
+        <v>99.81539335416073</v>
       </c>
       <c r="P16" t="s">
         <v>17</v>
       </c>
       <c r="Q16">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="R16" s="1">
-        <v>0.132729464928012</v>
+        <v>0.1336970946782636</v>
       </c>
       <c r="S16" s="1">
-        <v>99.78976058036214</v>
+        <v>99.7765137125858</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1553,28 +1553,28 @@
         <v>99.90189666448659</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M17" s="1">
-        <v>0.03791948429501359</v>
+        <v>0.09467007478935908</v>
       </c>
       <c r="N17" s="1">
-        <v>99.98736017190168</v>
+        <v>99.9100634289501</v>
       </c>
       <c r="P17" t="s">
         <v>18</v>
       </c>
       <c r="Q17">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="R17" s="1">
-        <v>0.1129720254921629</v>
+        <v>0.1203767199317207</v>
       </c>
       <c r="S17" s="1">
-        <v>99.90273260585431</v>
+        <v>99.89689043251752</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1606,22 +1606,22 @@
         <v>19</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="M18" s="1">
-        <v>0.01263982809833786</v>
+        <v>0.08993657104989113</v>
       </c>
       <c r="N18" s="1">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="P18" t="s">
         <v>19</v>
       </c>
       <c r="Q18">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="R18" s="1">
-        <v>0.09726739414571871</v>
+        <v>0.1031095674824985</v>
       </c>
       <c r="S18" s="1">
         <v>100</v>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2717,7 +2717,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2805,7 +2805,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2817,7 +2817,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -4009,28 +4009,28 @@
         <v>30.6807841839689</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>6479</v>
+        <v>3692</v>
       </c>
       <c r="M3" s="1">
-        <v>24.25955741940315</v>
+        <v>28.32591683289857</v>
       </c>
       <c r="N3" s="1">
-        <v>24.25955741940315</v>
+        <v>28.32591683289857</v>
       </c>
       <c r="P3" t="s">
         <v>4</v>
       </c>
       <c r="Q3">
-        <v>60413</v>
+        <v>58123</v>
       </c>
       <c r="R3" s="1">
-        <v>29.28717555919681</v>
+        <v>30.17730588510164</v>
       </c>
       <c r="S3" s="1">
-        <v>29.28717555919681</v>
+        <v>30.17730588510164</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4059,28 +4059,28 @@
         <v>52.41128298453139</v>
       </c>
       <c r="K4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L4">
-        <v>5982</v>
+        <v>2804</v>
       </c>
       <c r="M4" s="1">
-        <v>22.3986220840978</v>
+        <v>21.51296608869112</v>
       </c>
       <c r="N4" s="1">
-        <v>46.65817950350095</v>
+        <v>49.83888292158969</v>
       </c>
       <c r="P4" t="s">
         <v>15</v>
       </c>
       <c r="Q4">
-        <v>45307</v>
+        <v>41632</v>
       </c>
       <c r="R4" s="1">
-        <v>21.9640485170498</v>
+        <v>21.61522286545001</v>
       </c>
       <c r="S4" s="1">
-        <v>51.25122407624661</v>
+        <v>51.79252875055165</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4112,25 +4112,25 @@
         <v>11</v>
       </c>
       <c r="L5">
-        <v>3739</v>
+        <v>1768</v>
       </c>
       <c r="M5" s="1">
-        <v>14.00007488673381</v>
+        <v>13.56452355378241</v>
       </c>
       <c r="N5" s="1">
-        <v>60.65825439023477</v>
+        <v>63.4034064753721</v>
       </c>
       <c r="P5" t="s">
         <v>11</v>
       </c>
       <c r="Q5">
-        <v>27075</v>
+        <v>25104</v>
       </c>
       <c r="R5" s="1">
-        <v>13.12549084245533</v>
+        <v>13.03392954492355</v>
       </c>
       <c r="S5" s="1">
-        <v>64.37671491870194</v>
+        <v>64.82645829547521</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4162,25 +4162,25 @@
         <v>5</v>
       </c>
       <c r="L6">
-        <v>2977</v>
+        <v>1294</v>
       </c>
       <c r="M6" s="1">
-        <v>11.14689032837833</v>
+        <v>9.927880926806813</v>
       </c>
       <c r="N6" s="1">
-        <v>71.80514471861309</v>
+        <v>73.33128740217892</v>
       </c>
       <c r="P6" t="s">
         <v>5</v>
       </c>
       <c r="Q6">
-        <v>20815</v>
+        <v>19132</v>
       </c>
       <c r="R6" s="1">
-        <v>10.09075131618495</v>
+        <v>9.933283144258976</v>
       </c>
       <c r="S6" s="1">
-        <v>74.46746623488688</v>
+        <v>74.75974143973419</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -4212,25 +4212,25 @@
         <v>6</v>
       </c>
       <c r="L7">
-        <v>2419</v>
+        <v>1255</v>
       </c>
       <c r="M7" s="1">
-        <v>9.057550454936909</v>
+        <v>9.628663495473377</v>
       </c>
       <c r="N7" s="1">
-        <v>80.86269517355001</v>
+        <v>82.95995089765229</v>
       </c>
       <c r="P7" t="s">
         <v>6</v>
       </c>
       <c r="Q7">
-        <v>18281</v>
+        <v>17117</v>
       </c>
       <c r="R7" s="1">
-        <v>8.86231202551896</v>
+        <v>8.887100542561202</v>
       </c>
       <c r="S7" s="1">
-        <v>83.32977826040585</v>
+        <v>83.64684198229538</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4259,28 +4259,28 @@
         <v>87.80709736123748</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L8">
-        <v>1408</v>
+        <v>682</v>
       </c>
       <c r="M8" s="1">
-        <v>5.272026060583368</v>
+        <v>5.232468927420593</v>
       </c>
       <c r="N8" s="1">
-        <v>86.13472123413338</v>
+        <v>88.19241982507289</v>
       </c>
       <c r="P8" t="s">
         <v>14</v>
       </c>
       <c r="Q8">
-        <v>8443</v>
+        <v>7978</v>
       </c>
       <c r="R8" s="1">
-        <v>4.093020099089578</v>
+        <v>4.142156226473872</v>
       </c>
       <c r="S8" s="1">
-        <v>87.42279835949543</v>
+        <v>87.78899820876926</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4309,28 +4309,28 @@
         <v>91.71147324013566</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L9">
-        <v>1147</v>
+        <v>350</v>
       </c>
       <c r="M9" s="1">
-        <v>4.294754184296252</v>
+        <v>2.685284640171858</v>
       </c>
       <c r="N9" s="1">
-        <v>90.42947541842963</v>
+        <v>90.87770446524475</v>
       </c>
       <c r="P9" t="s">
         <v>10</v>
       </c>
       <c r="Q9">
-        <v>8150</v>
+        <v>7055</v>
       </c>
       <c r="R9" s="1">
-        <v>3.950978776214623</v>
+        <v>3.662937099244568</v>
       </c>
       <c r="S9" s="1">
-        <v>91.37377713571006</v>
+        <v>91.45193530801383</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4359,28 +4359,28 @@
         <v>94.1599801472413</v>
       </c>
       <c r="K10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>723</v>
+        <v>313</v>
       </c>
       <c r="M10" s="1">
-        <v>2.707155427416033</v>
+        <v>2.401411692496548</v>
       </c>
       <c r="N10" s="1">
-        <v>93.13663084584566</v>
+        <v>93.2791161577413</v>
       </c>
       <c r="P10" t="s">
         <v>13</v>
       </c>
       <c r="Q10">
-        <v>5388</v>
+        <v>5098</v>
       </c>
       <c r="R10" s="1">
-        <v>2.612009036349005</v>
+        <v>2.646867942161419</v>
       </c>
       <c r="S10" s="1">
-        <v>93.98578617205906</v>
+        <v>94.09880325017525</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -4412,25 +4412,25 @@
         <v>13</v>
       </c>
       <c r="L11">
-        <v>541</v>
+        <v>251</v>
       </c>
       <c r="M11" s="1">
-        <v>2.025686149698581</v>
+        <v>1.925732699094675</v>
       </c>
       <c r="N11" s="1">
-        <v>95.16231699554424</v>
+        <v>95.20484885683598</v>
       </c>
       <c r="P11" t="s">
         <v>8</v>
       </c>
       <c r="Q11">
-        <v>4147</v>
+        <v>3774</v>
       </c>
       <c r="R11" s="1">
-        <v>2.01039374048614</v>
+        <v>1.959450689234444</v>
       </c>
       <c r="S11" s="1">
-        <v>95.9961799125452</v>
+        <v>96.0582539394097</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4459,28 +4459,28 @@
         <v>97.45222929936307</v>
       </c>
       <c r="K12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L12">
-        <v>433</v>
+        <v>220</v>
       </c>
       <c r="M12" s="1">
-        <v>1.621297787097016</v>
+        <v>1.687893202393739</v>
       </c>
       <c r="N12" s="1">
-        <v>96.78361478264127</v>
+        <v>96.89274205922972</v>
       </c>
       <c r="P12" t="s">
         <v>7</v>
       </c>
       <c r="Q12">
-        <v>2207</v>
+        <v>2177</v>
       </c>
       <c r="R12" s="1">
-        <v>1.069915356945481</v>
+        <v>1.130292567690351</v>
       </c>
       <c r="S12" s="1">
-        <v>97.06609526949069</v>
+        <v>97.18854650710004</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -4509,28 +4509,28 @@
         <v>98.06435602613948</v>
       </c>
       <c r="K13" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="L13">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="M13" s="1">
-        <v>0.9360841726888081</v>
+        <v>0.9820469541199939</v>
       </c>
       <c r="N13" s="1">
-        <v>97.71969895533007</v>
+        <v>97.87478901334971</v>
       </c>
       <c r="P13" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Q13">
-        <v>1467</v>
+        <v>1264</v>
       </c>
       <c r="R13" s="1">
-        <v>0.7111761797186321</v>
+        <v>0.6562654136704654</v>
       </c>
       <c r="S13" s="1">
-        <v>97.77727144920932</v>
+        <v>97.84481192077051</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4559,28 +4559,28 @@
         <v>98.63512283894451</v>
       </c>
       <c r="K14" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L14">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="M14" s="1">
-        <v>0.6889579510989629</v>
+        <v>0.7748964247353077</v>
       </c>
       <c r="N14" s="1">
-        <v>98.40865690642903</v>
+        <v>98.64968543808502</v>
       </c>
       <c r="P14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Q14">
-        <v>1381</v>
+        <v>1255</v>
       </c>
       <c r="R14" s="1">
-        <v>0.6694848699328091</v>
+        <v>0.6515926377819891</v>
       </c>
       <c r="S14" s="1">
-        <v>98.44675631914214</v>
+        <v>98.4964045585525</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4609,28 +4609,28 @@
         <v>99.19761766895526</v>
       </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L15">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="M15" s="1">
-        <v>0.6702362676451866</v>
+        <v>0.5140402025471843</v>
       </c>
       <c r="N15" s="1">
-        <v>99.07889317407421</v>
+        <v>99.16372564063219</v>
       </c>
       <c r="P15" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="Q15">
-        <v>1243</v>
+        <v>1135</v>
       </c>
       <c r="R15" s="1">
-        <v>0.6025848612067211</v>
+        <v>0.5892889592689702</v>
       </c>
       <c r="S15" s="1">
-        <v>99.04934118034886</v>
+        <v>99.08569351782147</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -4659,28 +4659,28 @@
         <v>99.61948879146333</v>
       </c>
       <c r="K16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L16">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="M16" s="1">
-        <v>0.4867637697981803</v>
+        <v>0.5063679607181218</v>
       </c>
       <c r="N16" s="1">
-        <v>99.56565694387238</v>
+        <v>99.67009360135032</v>
       </c>
       <c r="P16" t="s">
         <v>20</v>
       </c>
       <c r="Q16">
-        <v>1052</v>
+        <v>939</v>
       </c>
       <c r="R16" s="1">
-        <v>0.5099913708684397</v>
+        <v>0.4875262843643727</v>
       </c>
       <c r="S16" s="1">
-        <v>99.5593325512173</v>
+        <v>99.57321980218585</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -4709,28 +4709,28 @@
         <v>100</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L17">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="M17" s="1">
-        <v>0.4343430561276069</v>
+        <v>0.322234156820623</v>
       </c>
       <c r="N17" s="1">
-        <v>99.99999999999999</v>
+        <v>99.99232775817094</v>
       </c>
       <c r="P17" t="s">
         <v>12</v>
       </c>
       <c r="Q17">
-        <v>897</v>
+        <v>809</v>
       </c>
       <c r="R17" s="1">
-        <v>0.4348500567195726</v>
+        <v>0.4200306326419356</v>
       </c>
       <c r="S17" s="1">
-        <v>99.99418260793686</v>
+        <v>99.99325043482779</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -4747,7 +4747,7 @@
         <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -4759,13 +4759,13 @@
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1">
-        <v>0</v>
+        <v>0.007672241829062452</v>
       </c>
       <c r="N18" s="1">
         <v>100</v>
@@ -4774,10 +4774,10 @@
         <v>19</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R18" s="1">
-        <v>0.005817392063138095</v>
+        <v>0.006749565172243711</v>
       </c>
       <c r="S18" s="1">
         <v>100</v>
@@ -4785,20 +4785,20 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>100</v>
-      </c>
-      <c r="F19" t="s">
-        <v>21</v>
-      </c>
       <c r="G19">
         <v>0</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -4821,7 +4821,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -4835,20 +4835,20 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>100</v>
+      </c>
+      <c r="F20" t="s">
         <v>21</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>100</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
       <c r="G20">
         <v>0</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -4871,7 +4871,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4909,7 +4909,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -4921,7 +4921,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5799,7 +5799,7 @@
         <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -5823,7 +5823,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -5849,7 +5849,7 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -5861,7 +5861,7 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5899,7 +5899,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -5911,7 +5911,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -5923,7 +5923,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5949,7 +5949,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -5973,7 +5973,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -6097,19 +6097,19 @@
         <v>4</v>
       </c>
       <c r="J3" s="1">
-        <v>26.01069884482295</v>
+        <v>27.33596891596734</v>
       </c>
       <c r="K3" s="1">
-        <v>26.01069884482295</v>
+        <v>27.33596891596734</v>
       </c>
       <c r="M3" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="1">
-        <v>27.58293923730374</v>
+        <v>27.76961917404103</v>
       </c>
       <c r="O3" s="1">
-        <v>27.58293923730374</v>
+        <v>27.76961917404103</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -6135,19 +6135,19 @@
         <v>6</v>
       </c>
       <c r="J4" s="1">
-        <v>14.44538858150692</v>
+        <v>14.7420137931005</v>
       </c>
       <c r="K4" s="1">
-        <v>40.45608742632987</v>
+        <v>42.07798270906784</v>
       </c>
       <c r="M4" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="1">
-        <v>14.74808845903013</v>
+        <v>14.76798075634912</v>
       </c>
       <c r="O4" s="1">
-        <v>42.33102769633388</v>
+        <v>42.53759993039016</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -6173,19 +6173,19 @@
         <v>5</v>
       </c>
       <c r="J5" s="1">
-        <v>14.11163787671304</v>
+        <v>13.85940633313815</v>
       </c>
       <c r="K5" s="1">
-        <v>54.56772530304291</v>
+        <v>55.93738904220599</v>
       </c>
       <c r="M5" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="1">
-        <v>13.93282021895101</v>
+        <v>13.90136869980343</v>
       </c>
       <c r="O5" s="1">
-        <v>56.26384791528488</v>
+        <v>56.43896863019359</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -6211,19 +6211,19 @@
         <v>11</v>
       </c>
       <c r="J6" s="1">
-        <v>7.009300090829113</v>
+        <v>7.159026135216155</v>
       </c>
       <c r="K6" s="1">
-        <v>61.57702539387202</v>
+        <v>63.09641517742214</v>
       </c>
       <c r="M6" t="s">
         <v>11</v>
       </c>
       <c r="N6" s="1">
-        <v>6.945043993415022</v>
+        <v>6.948026780905408</v>
       </c>
       <c r="O6" s="1">
-        <v>63.2088919086999</v>
+        <v>63.38699541109899</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -6246,22 +6246,22 @@
         <v>69.74284844368408</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1">
-        <v>6.349757071234031</v>
+        <v>6.513441060835694</v>
       </c>
       <c r="K7" s="1">
-        <v>67.92678246510604</v>
+        <v>69.60985623825783</v>
       </c>
       <c r="M7" t="s">
         <v>7</v>
       </c>
       <c r="N7" s="1">
-        <v>6.140821187539951</v>
+        <v>6.18992950476058</v>
       </c>
       <c r="O7" s="1">
-        <v>69.34971309623985</v>
+        <v>69.57692491585958</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -6284,22 +6284,22 @@
         <v>75.44542871562916</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1">
-        <v>6.256040264954787</v>
+        <v>5.658517695173276</v>
       </c>
       <c r="K8" s="1">
-        <v>74.18282273006083</v>
+        <v>75.26837393343111</v>
       </c>
       <c r="M8" t="s">
         <v>15</v>
       </c>
       <c r="N8" s="1">
-        <v>5.78142134820551</v>
+        <v>5.699416089936394</v>
       </c>
       <c r="O8" s="1">
-        <v>75.13113444444537</v>
+        <v>75.27634100579597</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -6322,22 +6322,22 @@
         <v>80.87673626381608</v>
       </c>
       <c r="I9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1">
-        <v>5.935875501673477</v>
+        <v>5.501282017474807</v>
       </c>
       <c r="K9" s="1">
-        <v>80.11869823173431</v>
+        <v>80.76965595090591</v>
       </c>
       <c r="M9" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="1">
-        <v>5.505461256944867</v>
+        <v>5.485127927517711</v>
       </c>
       <c r="O9" s="1">
-        <v>80.63659570139023</v>
+        <v>80.76146893331368</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -6360,22 +6360,22 @@
         <v>85.7872962171158</v>
       </c>
       <c r="I10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1">
-        <v>5.608591139298573</v>
+        <v>4.820047384472631</v>
       </c>
       <c r="K10" s="1">
-        <v>85.72728937103288</v>
+        <v>85.58970333537854</v>
       </c>
       <c r="M10" t="s">
         <v>10</v>
       </c>
       <c r="N10" s="1">
-        <v>5.136772986237082</v>
+        <v>5.005893489278757</v>
       </c>
       <c r="O10" s="1">
-        <v>85.77336868762731</v>
+        <v>85.76736242259244</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -6401,19 +6401,19 @@
         <v>12</v>
       </c>
       <c r="J11" s="1">
-        <v>3.652037494323832</v>
+        <v>3.752856417843678</v>
       </c>
       <c r="K11" s="1">
-        <v>89.37932686535672</v>
+        <v>89.34255975322222</v>
       </c>
       <c r="M11" t="s">
         <v>12</v>
       </c>
       <c r="N11" s="1">
-        <v>3.758351185574841</v>
+        <v>3.767893772321243</v>
       </c>
       <c r="O11" s="1">
-        <v>89.53171987320215</v>
+        <v>89.53525619491369</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -6436,22 +6436,22 @@
         <v>92.4395742429643</v>
       </c>
       <c r="I12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1">
-        <v>2.933603687111089</v>
+        <v>2.738661893836809</v>
       </c>
       <c r="K12" s="1">
-        <v>92.3129305524678</v>
+        <v>92.08122164705902</v>
       </c>
       <c r="M12" t="s">
         <v>9</v>
       </c>
       <c r="N12" s="1">
-        <v>2.810893675718965</v>
+        <v>2.784816976214842</v>
       </c>
       <c r="O12" s="1">
-        <v>92.34261354892112</v>
+        <v>92.32007317112853</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -6474,22 +6474,22 @@
         <v>95.13801173735278</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1">
-        <v>2.776356958912257</v>
+        <v>2.714367674080367</v>
       </c>
       <c r="K13" s="1">
-        <v>95.08928751138006</v>
+        <v>94.79558932113939</v>
       </c>
       <c r="M13" t="s">
         <v>13</v>
       </c>
       <c r="N13" s="1">
-        <v>2.759334952447241</v>
+        <v>2.764352492910489</v>
       </c>
       <c r="O13" s="1">
-        <v>95.10194850136837</v>
+        <v>95.08442566403902</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -6515,19 +6515,19 @@
         <v>14</v>
       </c>
       <c r="J14" s="1">
-        <v>2.342791928847714</v>
+        <v>2.553784552687454</v>
       </c>
       <c r="K14" s="1">
-        <v>97.43207944022778</v>
+        <v>97.34937387382685</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
       </c>
       <c r="N14" s="1">
-        <v>2.258144240114059</v>
+        <v>2.270637539981801</v>
       </c>
       <c r="O14" s="1">
-        <v>97.36009274148243</v>
+        <v>97.35506320402082</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -6553,19 +6553,19 @@
         <v>20</v>
       </c>
       <c r="J15" s="1">
-        <v>1.350779127172397</v>
+        <v>1.318005465786984</v>
       </c>
       <c r="K15" s="1">
-        <v>98.78285856740018</v>
+        <v>98.66737933961383</v>
       </c>
       <c r="M15" t="s">
         <v>20</v>
       </c>
       <c r="N15" s="1">
-        <v>1.39086106354667</v>
+        <v>1.386368046245857</v>
       </c>
       <c r="O15" s="1">
-        <v>98.7509538050291</v>
+        <v>98.74143125026669</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -6591,19 +6591,19 @@
         <v>18</v>
       </c>
       <c r="J16" s="1">
-        <v>0.4464370273446668</v>
+        <v>0.464414050678791</v>
       </c>
       <c r="K16" s="1">
-        <v>99.22929559474485</v>
+        <v>99.13179339029263</v>
       </c>
       <c r="M16" t="s">
         <v>18</v>
       </c>
       <c r="N16" s="1">
-        <v>0.5076105104663264</v>
+        <v>0.509091449354238</v>
       </c>
       <c r="O16" s="1">
-        <v>99.25856431549542</v>
+        <v>99.25052269962093</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -6629,19 +6629,19 @@
         <v>22</v>
       </c>
       <c r="J17" s="1">
-        <v>0.3342361557257335</v>
+        <v>0.443776935324211</v>
       </c>
       <c r="K17" s="1">
-        <v>99.56353175047059</v>
+        <v>99.57557032561684</v>
       </c>
       <c r="M17" t="s">
         <v>22</v>
       </c>
       <c r="N17" s="1">
-        <v>0.3762693390748926</v>
+        <v>0.3860708943899462</v>
       </c>
       <c r="O17" s="1">
-        <v>99.63483365457031</v>
+        <v>99.63659359401088</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -6667,19 +6667,19 @@
         <v>16</v>
       </c>
       <c r="J18" s="1">
-        <v>0.2382114291995696</v>
+        <v>0.2044661351094127</v>
       </c>
       <c r="K18" s="1">
-        <v>99.80174317967015</v>
+        <v>99.78003646072625</v>
       </c>
       <c r="M18" t="s">
         <v>16</v>
       </c>
       <c r="N18" s="1">
-        <v>0.1992463679832866</v>
+        <v>0.1959380333035217</v>
       </c>
       <c r="O18" s="1">
-        <v>99.83408002255361</v>
+        <v>99.8325316273144</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -6705,19 +6705,19 @@
         <v>17</v>
       </c>
       <c r="J19" s="1">
-        <v>0.1519410240516445</v>
+        <v>0.1566539460394044</v>
       </c>
       <c r="K19" s="1">
-        <v>99.95368420372179</v>
+        <v>99.93669040676565</v>
       </c>
       <c r="M19" t="s">
         <v>17</v>
       </c>
       <c r="N19" s="1">
-        <v>0.1027839015975831</v>
+        <v>0.1029774275476334</v>
       </c>
       <c r="O19" s="1">
-        <v>99.9368639241512</v>
+        <v>99.93550905486202</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -6743,16 +6743,16 @@
         <v>19</v>
       </c>
       <c r="J20" s="1">
-        <v>0.04631579627820951</v>
+        <v>0.06330959323433265</v>
       </c>
       <c r="K20" s="1">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="M20" t="s">
         <v>19</v>
       </c>
       <c r="N20" s="1">
-        <v>0.06313607584881928</v>
+        <v>0.06449094513799637</v>
       </c>
       <c r="O20" s="1">
         <v>100</v>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="M21" t="s">
         <v>21</v>

--- a/data_exploration/acl/tag_stats/tag_stats_agglutinative.xlsx
+++ b/data_exploration/acl/tag_stats/tag_stats_agglutinative.xlsx
@@ -81,13 +81,13 @@
     <t>INTJ</t>
   </si>
   <si>
-    <t>DET</t>
+    <t>PART</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
-    <t>PART</t>
+    <t>DET</t>
   </si>
   <si>
     <t>TRAIN</t>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>2428</v>
@@ -2343,7 +2343,7 @@
         <v>96.46723490558281</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G12">
         <v>820</v>
@@ -2355,7 +2355,7 @@
         <v>96.43494500933804</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L12">
         <v>826</v>
@@ -2367,7 +2367,7 @@
         <v>96.27471896282924</v>
       </c>
       <c r="P12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q12">
         <v>4074</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>882</v>
@@ -2443,7 +2443,7 @@
         <v>99.19149286047085</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G14">
         <v>292</v>
@@ -2455,7 +2455,7 @@
         <v>99.16165179497821</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L14">
         <v>286</v>
@@ -2467,7 +2467,7 @@
         <v>99.10970706490522</v>
       </c>
       <c r="P14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q14">
         <v>1460</v>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2717,7 +2717,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2805,7 +2805,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2817,7 +2817,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>4286</v>
@@ -3495,7 +3495,7 @@
         <v>99.25720029954864</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G14">
         <v>266</v>
@@ -3507,7 +3507,7 @@
         <v>99.39868660495293</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L14">
         <v>272</v>
@@ -3519,7 +3519,7 @@
         <v>98.49115137841078</v>
       </c>
       <c r="P14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q14">
         <v>4824</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>234</v>
@@ -3669,7 +3669,7 @@
         <v>99.92596770781923</v>
       </c>
       <c r="P17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q17">
         <v>268</v>
@@ -3695,7 +3695,7 @@
         <v>99.98380818091658</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G18">
         <v>16</v>
@@ -3707,7 +3707,7 @@
         <v>99.9802199541103</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L18">
         <v>18</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3795,7 +3795,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3857,7 +3857,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -4509,7 +4509,7 @@
         <v>98.06435602613948</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L13">
         <v>128</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1058</v>
@@ -4547,7 +4547,7 @@
         <v>98.49834609092322</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G14">
         <v>69</v>
@@ -4571,7 +4571,7 @@
         <v>98.64968543808502</v>
       </c>
       <c r="P14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q14">
         <v>1255</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>822</v>
@@ -4647,7 +4647,7 @@
         <v>99.56234102769254</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G16">
         <v>51</v>
@@ -4659,7 +4659,7 @@
         <v>99.61948879146333</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L16">
         <v>66</v>
@@ -4671,7 +4671,7 @@
         <v>99.67009360135032</v>
       </c>
       <c r="P16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q16">
         <v>939</v>
@@ -4747,7 +4747,7 @@
         <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -4797,7 +4797,7 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -4821,7 +4821,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4847,20 +4847,20 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>100</v>
+      </c>
+      <c r="K20" t="s">
         <v>21</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>100</v>
-      </c>
-      <c r="K20" t="s">
-        <v>18</v>
-      </c>
       <c r="L20">
         <v>0</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -4909,7 +4909,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -4921,7 +4921,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5599,7 +5599,7 @@
         <v>98.14628353083936</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G14">
         <v>191</v>
@@ -5637,7 +5637,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>646</v>
@@ -5661,7 +5661,7 @@
         <v>99.74781765276428</v>
       </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L15">
         <v>178</v>
@@ -5673,7 +5673,7 @@
         <v>99.76594499707429</v>
       </c>
       <c r="P15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q15">
         <v>1015</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5799,7 +5799,7 @@
         <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -5823,7 +5823,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -5849,7 +5849,7 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -5861,7 +5861,7 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5899,7 +5899,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -5911,7 +5911,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -5923,7 +5923,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5949,7 +5949,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -5973,7 +5973,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -6532,7 +6532,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1">
         <v>1.386326884413374</v>
@@ -6541,7 +6541,7 @@
         <v>98.74595858134708</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F15" s="1">
         <v>1.345987113533972</v>
@@ -6550,7 +6550,7 @@
         <v>98.74048532836244</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1">
         <v>1.318005465786984</v>
@@ -6559,7 +6559,7 @@
         <v>98.66737933961383</v>
       </c>
       <c r="M15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N15" s="1">
         <v>1.386368046245857</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>0.3838588900674421</v>
@@ -6617,7 +6617,7 @@
         <v>99.64422271862732</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1">
         <v>0.3691865284317669</v>
@@ -6626,7 +6626,7 @@
         <v>99.6414166752063</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1">
         <v>0.443776935324211</v>
@@ -6635,7 +6635,7 @@
         <v>99.57557032561684</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N17" s="1">
         <v>0.3860708943899462</v>
